--- a/DBFieldsDataType/observation.xlsx
+++ b/DBFieldsDataType/observation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GMSLabkey\dataType\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GMSLabkey\DBFieldsDataType\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA4BDE7-868A-489B-9075-E645AD5BC84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00F2427-3D7E-4F30-B290-F8534FB0256F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,9 +66,6 @@
     <t>timestamp</t>
   </si>
   <si>
-    <t>patient_id</t>
-  </si>
-  <si>
     <t>integer</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
 unknown
 present
 absent</t>
+  </si>
+  <si>
+    <t>participant_id</t>
   </si>
 </sst>
 </file>
@@ -482,13 +482,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -496,10 +496,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -510,10 +510,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
